--- a/data/trans_orig/P1802_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>43011</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32315</v>
+        <v>31876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56751</v>
+        <v>55359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1025371968355109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07703917382237856</v>
+        <v>0.07599193763524188</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1352948550037361</v>
+        <v>0.1319754815137597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -763,19 +763,19 @@
         <v>57781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45240</v>
+        <v>44557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72279</v>
+        <v>72527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1460029467132725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1143123502345378</v>
+        <v>0.11258709081524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1826346896692133</v>
+        <v>0.1832622784856003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -784,19 +784,19 @@
         <v>100792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83970</v>
+        <v>83742</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119539</v>
+        <v>120738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.12363804095395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.103003456664941</v>
+        <v>0.1027234536599204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1466348531970808</v>
+        <v>0.1481050579243096</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>376452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>362712</v>
+        <v>364104</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>387148</v>
+        <v>387587</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.897462803164489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8647051449962639</v>
+        <v>0.8680245184862404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9229608261776215</v>
+        <v>0.9240080623647583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>345</v>
@@ -834,19 +834,19 @@
         <v>337974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323476</v>
+        <v>323228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350515</v>
+        <v>351198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8539970532867275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8173653103307867</v>
+        <v>0.8167377215143997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8856876497654623</v>
+        <v>0.8874129091847601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>697</v>
@@ -855,19 +855,19 @@
         <v>714426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>695679</v>
+        <v>694480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731248</v>
+        <v>731476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.87636195904605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8533651468029192</v>
+        <v>0.8518949420756902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.896996543335059</v>
+        <v>0.8972765463400796</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>67347</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52563</v>
+        <v>53044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84274</v>
+        <v>85887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1140524139229084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08901569452020794</v>
+        <v>0.0898298953955507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1427180592287114</v>
+        <v>0.1454488283400498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -980,19 +980,19 @@
         <v>85704</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69175</v>
+        <v>68405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102092</v>
+        <v>103464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1520799079216661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1227496772594411</v>
+        <v>0.121384355899684</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1811604887175629</v>
+        <v>0.1835959603285215</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -1001,19 +1001,19 @@
         <v>153051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130170</v>
+        <v>129791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177743</v>
+        <v>176896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1326220952667614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1127946720689137</v>
+        <v>0.112466808332122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1540183066622308</v>
+        <v>0.1532839312982839</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>523149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>506222</v>
+        <v>504609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>537933</v>
+        <v>537452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8859475860770916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8572819407712891</v>
+        <v>0.8545511716599503</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9109843054797924</v>
+        <v>0.9101701046044494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>493</v>
@@ -1051,19 +1051,19 @@
         <v>477840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>461452</v>
+        <v>460080</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494369</v>
+        <v>495139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8479200920783339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8188395112824371</v>
+        <v>0.8164040396714786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.877250322740559</v>
+        <v>0.8786156441003159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>998</v>
@@ -1072,19 +1072,19 @@
         <v>1000989</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>976297</v>
+        <v>977144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023870</v>
+        <v>1024249</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8673779047332386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8459816933377694</v>
+        <v>0.8467160687017161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8872053279310863</v>
+        <v>0.887533191667878</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>91092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74045</v>
+        <v>73589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109535</v>
+        <v>110589</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1361411006131321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1106643090899307</v>
+        <v>0.1099818280714086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1637053597447997</v>
+        <v>0.1652813624639987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1197,19 +1197,19 @@
         <v>102502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84663</v>
+        <v>85220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123054</v>
+        <v>121374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1549805009957229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1280080864742441</v>
+        <v>0.1288501627895459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1860553566152845</v>
+        <v>0.1835143108012139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>186</v>
@@ -1218,19 +1218,19 @@
         <v>193594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169508</v>
+        <v>169373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222508</v>
+        <v>220446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1455062117851037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1274035907662877</v>
+        <v>0.1273015596867159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1672382466268399</v>
+        <v>0.1656886002278159</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>578005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559562</v>
+        <v>558508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>595052</v>
+        <v>595508</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8638588993868679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8362946402552002</v>
+        <v>0.8347186375360013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8893356909100691</v>
+        <v>0.8900181719285913</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>565</v>
@@ -1268,19 +1268,19 @@
         <v>558884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538332</v>
+        <v>540012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576723</v>
+        <v>576166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8450194990042771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8139446433847155</v>
+        <v>0.8164856891987866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8719919135257559</v>
+        <v>0.8711498372104546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1117</v>
@@ -1289,19 +1289,19 @@
         <v>1136889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1107975</v>
+        <v>1110037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1160975</v>
+        <v>1161110</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8544937882148963</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8327617533731601</v>
+        <v>0.8343113997721839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8725964092337123</v>
+        <v>0.872698440313284</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>108036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89731</v>
+        <v>88890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128242</v>
+        <v>126952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.167226114810235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1388920837649975</v>
+        <v>0.1375906121958429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1985024090869627</v>
+        <v>0.1965053065996031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -1414,19 +1414,19 @@
         <v>105447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87583</v>
+        <v>87789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126288</v>
+        <v>125921</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1624560925624875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.134934475290385</v>
+        <v>0.135252179206494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1945651918079612</v>
+        <v>0.1940002278023242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -1435,19 +1435,19 @@
         <v>213483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187705</v>
+        <v>185650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242292</v>
+        <v>241989</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1648355263553926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1449320670987013</v>
+        <v>0.1433448860610525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1870798549312419</v>
+        <v>0.1868461213065695</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>538012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>517806</v>
+        <v>519096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>556317</v>
+        <v>557158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.832773885189765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8014975909130373</v>
+        <v>0.803494693400397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8611079162350026</v>
+        <v>0.8624093878041571</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>504</v>
@@ -1485,19 +1485,19 @@
         <v>543630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>522789</v>
+        <v>523156</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>561494</v>
+        <v>561288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8375439074375125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8054348081920387</v>
+        <v>0.8059997721976759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8650655247096151</v>
+        <v>0.8647478207935061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>989</v>
@@ -1506,19 +1506,19 @@
         <v>1081642</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1052833</v>
+        <v>1053136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1107420</v>
+        <v>1109475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8351644736446073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8129201450687581</v>
+        <v>0.8131538786934303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8550679329012987</v>
+        <v>0.8566551139389473</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>75063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60502</v>
+        <v>57602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93188</v>
+        <v>91517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1570619014933553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1265948722143864</v>
+        <v>0.1205279895674494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1949867013317061</v>
+        <v>0.1914902435694484</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -1631,19 +1631,19 @@
         <v>128973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110236</v>
+        <v>108370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151267</v>
+        <v>148500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259582320212658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2218705223855515</v>
+        <v>0.2181136575384171</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3044521075954845</v>
+        <v>0.2988845194959243</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -1652,19 +1652,19 @@
         <v>204036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175777</v>
+        <v>176183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>232091</v>
+        <v>231793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2093176381666686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1803267847072819</v>
+        <v>0.1807439472698118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2380987170877195</v>
+        <v>0.2377937148261786</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>402855</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>384730</v>
+        <v>386401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>417416</v>
+        <v>420316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8429380985066447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8050132986682939</v>
+        <v>0.8085097564305517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8734051277856136</v>
+        <v>0.8794720104325507</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -1702,19 +1702,19 @@
         <v>367876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>345582</v>
+        <v>348349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>386613</v>
+        <v>388479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740417679787342</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6955478924045155</v>
+        <v>0.7011154805040757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7781294776144485</v>
+        <v>0.781886342461583</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>677</v>
@@ -1723,19 +1723,19 @@
         <v>770731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742676</v>
+        <v>742974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>798990</v>
+        <v>798584</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7906823618333314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7619012829122805</v>
+        <v>0.7622062851738215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8196732152927181</v>
+        <v>0.8192560527301883</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>55754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43104</v>
+        <v>42737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69160</v>
+        <v>70414</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1667625519060117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1289253481577661</v>
+        <v>0.1278290977479866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2068611024926157</v>
+        <v>0.2106130325350022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -1848,19 +1848,19 @@
         <v>93473</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77087</v>
+        <v>76583</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110191</v>
+        <v>112268</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.247438842114149</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2040619256342293</v>
+        <v>0.2027286767900852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2916947703322243</v>
+        <v>0.2971926918012173</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -1869,19 +1869,19 @@
         <v>149227</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128189</v>
+        <v>127762</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172299</v>
+        <v>172200</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2095610061521071</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1800175307141387</v>
+        <v>0.1794174926324143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2419620922264062</v>
+        <v>0.2418221819273121</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>278576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265170</v>
+        <v>263916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>291226</v>
+        <v>291593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8332374480939883</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7931388975073844</v>
+        <v>0.7893869674649979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8710746518422339</v>
+        <v>0.8721709022520134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -1919,19 +1919,19 @@
         <v>284289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267571</v>
+        <v>265494</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>300675</v>
+        <v>301179</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.752561157885851</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7083052296677756</v>
+        <v>0.7028073081987827</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7959380743657708</v>
+        <v>0.7972713232099148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>538</v>
@@ -1940,19 +1940,19 @@
         <v>562865</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539793</v>
+        <v>539892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>583903</v>
+        <v>584330</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7904389938478928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7580379077735938</v>
+        <v>0.7581778180726879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8199824692858613</v>
+        <v>0.8205825073675858</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>47304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36744</v>
+        <v>37276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60069</v>
+        <v>59188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1840638755383533</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1429733451567293</v>
+        <v>0.1450425722409237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2337325259848325</v>
+        <v>0.2303072262827908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -2065,19 +2065,19 @@
         <v>95381</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77920</v>
+        <v>77923</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115374</v>
+        <v>115662</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.238352849648692</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.194718976197534</v>
+        <v>0.194725995137422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2883139225260342</v>
+        <v>0.2890338501472364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2086,19 +2086,19 @@
         <v>142685</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121839</v>
+        <v>122144</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>164161</v>
+        <v>166222</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2171220851463601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1854009891044213</v>
+        <v>0.1858641478773549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.249801748543064</v>
+        <v>0.2529374340469847</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>209694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196929</v>
+        <v>197810</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220254</v>
+        <v>219722</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8159361244616467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7662674740151677</v>
+        <v>0.7696927737172092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8570266548432707</v>
+        <v>0.8549574277590765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -2136,19 +2136,19 @@
         <v>304788</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>284795</v>
+        <v>284507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>322249</v>
+        <v>322246</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.761647150351308</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7116860774739658</v>
+        <v>0.7109661498527636</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.805281023802466</v>
+        <v>0.8052740048625779</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>476</v>
@@ -2157,19 +2157,19 @@
         <v>514482</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>493006</v>
+        <v>490945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>535328</v>
+        <v>535023</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7828779148536399</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.750198251456936</v>
+        <v>0.7470625659530152</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8145990108955785</v>
+        <v>0.8141358521226449</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>487606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1436523148843321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>617</v>
@@ -2282,19 +2282,19 @@
         <v>669261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1888145754281552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1077</v>
@@ -2303,19 +2303,19 @@
         <v>1156867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1667222115442197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2906744</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2862095</v>
+        <v>2862267</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2946700</v>
+        <v>2948620</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8563476851156679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8431939286801854</v>
+        <v>0.8432445201149925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8681190426075832</v>
+        <v>0.8686848544105865</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2721</v>
@@ -2353,19 +2353,19 @@
         <v>2875281</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2827763</v>
+        <v>2832944</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2923938</v>
+        <v>2929005</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8111854245718447</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7977793970356212</v>
+        <v>0.7992410866212268</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8249127701593719</v>
+        <v>0.8263423087840667</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5492</v>
@@ -2374,19 +2374,19 @@
         <v>5782025</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5713515</v>
+        <v>5717282</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5845742</v>
+        <v>5846300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8332777884557803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8234045760300909</v>
+        <v>0.8239473819872175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8424604490178508</v>
+        <v>0.8425408063679675</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>31677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18589</v>
+        <v>17134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53686</v>
+        <v>53767</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0776801175958876</v>
+        <v>0.07768011759588758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04558426712014585</v>
+        <v>0.04201557609807684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1316496750091994</v>
+        <v>0.1318480632452823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2742,19 +2742,19 @@
         <v>45629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30452</v>
+        <v>30185</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65824</v>
+        <v>65296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1258694760728952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08400280276807932</v>
+        <v>0.08326540595979794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1815770069034089</v>
+        <v>0.1801211198365661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2763,19 +2763,19 @@
         <v>77307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54229</v>
+        <v>57295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102586</v>
+        <v>108483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1003584315891646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07039922717961218</v>
+        <v>0.07437950175712026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1331756133102701</v>
+        <v>0.1408309822477208</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>376116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354107</v>
+        <v>354026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389204</v>
+        <v>390659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9223198824041124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8683503249908008</v>
+        <v>0.8681519367547168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9544157328798542</v>
+        <v>0.9579844239019232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -2813,19 +2813,19 @@
         <v>316883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296688</v>
+        <v>297216</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>332060</v>
+        <v>332327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8741305239271048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8184229930965913</v>
+        <v>0.8198788801634338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9159971972319206</v>
+        <v>0.9167345940402022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>341</v>
@@ -2834,19 +2834,19 @@
         <v>692998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667719</v>
+        <v>661822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>716076</v>
+        <v>713010</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8996415684108355</v>
+        <v>0.8996415684108353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8668243866897302</v>
+        <v>0.8591690177522793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9296007728203879</v>
+        <v>0.9256204982428798</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>44993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30620</v>
+        <v>29405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63271</v>
+        <v>62059</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09434736254643696</v>
+        <v>0.09434736254643697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06420871970635686</v>
+        <v>0.06165920896423132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1326737865572092</v>
+        <v>0.1301316903438036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -2959,19 +2959,19 @@
         <v>56199</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42901</v>
+        <v>42783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71504</v>
+        <v>71378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1121551875938366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08561594241916322</v>
+        <v>0.08538021240281281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1426994387987497</v>
+        <v>0.1424482546070492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -2980,19 +2980,19 @@
         <v>101192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81963</v>
+        <v>80678</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124237</v>
+        <v>127633</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1034715375093633</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08380878190058383</v>
+        <v>0.0824955831870212</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1270351287064602</v>
+        <v>0.1305075354048591</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>431897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413619</v>
+        <v>414831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446270</v>
+        <v>447485</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9056526374535629</v>
+        <v>0.9056526374535631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8673262134427908</v>
+        <v>0.8698683096561963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9357912802936432</v>
+        <v>0.9383407910357682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -3030,19 +3030,19 @@
         <v>444884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>429579</v>
+        <v>429705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458182</v>
+        <v>458300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8878448124061633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8573005612012504</v>
+        <v>0.8575517453929508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9143840575808367</v>
+        <v>0.9146197875971871</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>679</v>
@@ -3051,19 +3051,19 @@
         <v>876781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>853736</v>
+        <v>850340</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896010</v>
+        <v>897295</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8965284624906367</v>
+        <v>0.8965284624906366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8729648712935398</v>
+        <v>0.869492464595141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9161912180994164</v>
+        <v>0.9175044168129789</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>99226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82338</v>
+        <v>79898</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119840</v>
+        <v>117816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1598256481129849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1326249326942008</v>
+        <v>0.1286934239549575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1930297483013662</v>
+        <v>0.189770214193216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -3176,19 +3176,19 @@
         <v>93071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78030</v>
+        <v>77903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107313</v>
+        <v>108313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1495987756940964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1254219765964936</v>
+        <v>0.12521729893523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1724911859592467</v>
+        <v>0.174097382239363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -3197,19 +3197,19 @@
         <v>192297</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168768</v>
+        <v>171315</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>217455</v>
+        <v>215913</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1547068538879978</v>
+        <v>0.1547068538879979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1357775753869608</v>
+        <v>0.1378262656873256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1749470561056791</v>
+        <v>0.1737066523620671</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>521611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500997</v>
+        <v>503021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538499</v>
+        <v>540939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8401743518870151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8069702516986339</v>
+        <v>0.810229785806784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8673750673057993</v>
+        <v>0.8713065760450425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>714</v>
@@ -3247,19 +3247,19 @@
         <v>529068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>514826</v>
+        <v>513826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>544109</v>
+        <v>544236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8504012243059037</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8275088140407533</v>
+        <v>0.825902617760637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8745780234035064</v>
+        <v>0.8747827010647706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1170</v>
@@ -3268,19 +3268,19 @@
         <v>1050679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1025521</v>
+        <v>1027063</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1074208</v>
+        <v>1071661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8452931461120021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8250529438943204</v>
+        <v>0.8262933476379328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8642224246130392</v>
+        <v>0.8621737343126741</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>112993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94811</v>
+        <v>93708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133829</v>
+        <v>134130</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1612758032930987</v>
+        <v>0.1612758032930986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1353256325490972</v>
+        <v>0.1337504586039925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1910153577774892</v>
+        <v>0.191445893857278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -3393,19 +3393,19 @@
         <v>159163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142838</v>
+        <v>142474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177846</v>
+        <v>176643</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2162068265624601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1940306428247484</v>
+        <v>0.1935360482553891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2415853548651737</v>
+        <v>0.2399505218848452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>368</v>
@@ -3414,19 +3414,19 @@
         <v>272156</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246006</v>
+        <v>250055</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>298861</v>
+        <v>302531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1894208103252301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.17122008193965</v>
+        <v>0.1740386270472436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.208007335457987</v>
+        <v>0.2105615584070412</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>587624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>566788</v>
+        <v>566487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>605806</v>
+        <v>606909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8387241967069015</v>
+        <v>0.8387241967069013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8089846422225108</v>
+        <v>0.8085541061427222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8646743674509024</v>
+        <v>0.8662495413960074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>885</v>
@@ -3464,19 +3464,19 @@
         <v>577000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>558317</v>
+        <v>559520</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>593325</v>
+        <v>593689</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7837931734375401</v>
+        <v>0.78379317343754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7584146451348261</v>
+        <v>0.7600494781151549</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8059693571752518</v>
+        <v>0.8064639517446109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1437</v>
@@ -3485,19 +3485,19 @@
         <v>1164624</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1137919</v>
+        <v>1134249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1190774</v>
+        <v>1186725</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8105791896747699</v>
+        <v>0.8105791896747698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7919926645420127</v>
+        <v>0.7894384415929591</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8287799180603499</v>
+        <v>0.8259613729527563</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>122653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106239</v>
+        <v>105388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142320</v>
+        <v>141497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.201286345179415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.17434943358844</v>
+        <v>0.1729531966205884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2335619256635834</v>
+        <v>0.2322120005609474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -3610,19 +3610,19 @@
         <v>156470</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139061</v>
+        <v>141257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172253</v>
+        <v>172854</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.257569303748211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.228912717261862</v>
+        <v>0.2325265753182158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2835493568654458</v>
+        <v>0.284538885045361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>398</v>
@@ -3631,19 +3631,19 @@
         <v>279123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253888</v>
+        <v>253842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304514</v>
+        <v>304302</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2293848326174409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2086465270096732</v>
+        <v>0.2086088637414402</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.25025110337858</v>
+        <v>0.2500766393422827</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>486693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467026</v>
+        <v>467849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503107</v>
+        <v>503958</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.798713654820585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7664380743364166</v>
+        <v>0.7677879994390523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8256505664115601</v>
+        <v>0.8270468033794115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>741</v>
@@ -3681,19 +3681,19 @@
         <v>451017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>435234</v>
+        <v>434633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>468426</v>
+        <v>466230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.742430696251789</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7164506431345542</v>
+        <v>0.7154611149546389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7710872827381381</v>
+        <v>0.7674734246817841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1265</v>
@@ -3702,19 +3702,19 @@
         <v>937711</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>912320</v>
+        <v>912532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>962946</v>
+        <v>962992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7706151673825591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7497488966214197</v>
+        <v>0.7499233606577179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7913534729903267</v>
+        <v>0.7913911362585599</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>74358</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62694</v>
+        <v>61595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89252</v>
+        <v>88310</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1830545457016669</v>
+        <v>0.183054545701667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1543403468315447</v>
+        <v>0.1516350743131589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2197221319179253</v>
+        <v>0.217402369890234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -3827,19 +3827,19 @@
         <v>93851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82146</v>
+        <v>82221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106501</v>
+        <v>106896</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2140101518440334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1873195216549957</v>
+        <v>0.1874902742833489</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2428576343897707</v>
+        <v>0.243757206986047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>281</v>
@@ -3848,19 +3848,19 @@
         <v>168208</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151723</v>
+        <v>150590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187304</v>
+        <v>187095</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1991246710905075</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1796096317674451</v>
+        <v>0.1782687403915556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2217306729291462</v>
+        <v>0.2214828353251223</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>331847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>316953</v>
+        <v>317895</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>343511</v>
+        <v>344610</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8169454542983329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7802778680820747</v>
+        <v>0.7825976301097658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.845659653168455</v>
+        <v>0.848364925686841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>650</v>
@@ -3898,19 +3898,19 @@
         <v>344682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>332032</v>
+        <v>331637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>356387</v>
+        <v>356312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7859898481559665</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7571423656102292</v>
+        <v>0.7562427930139531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8126804783450042</v>
+        <v>0.8125097257166511</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1114</v>
@@ -3919,19 +3919,19 @@
         <v>676530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>657434</v>
+        <v>657643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>693015</v>
+        <v>694148</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8008753289094925</v>
+        <v>0.8008753289094924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7782693270708538</v>
+        <v>0.7785171646748779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8203903682325548</v>
+        <v>0.8217312596084445</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>48134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37882</v>
+        <v>39168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58777</v>
+        <v>58840</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1555705092444416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1224369956490985</v>
+        <v>0.126591678941893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1899691735457966</v>
+        <v>0.1901739547400435</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -4044,19 +4044,19 @@
         <v>95349</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>83396</v>
+        <v>81958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110246</v>
+        <v>108025</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2054877730297028</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1797280129969887</v>
+        <v>0.1766292524245458</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2375923168742121</v>
+        <v>0.2328052066611906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>252</v>
@@ -4065,19 +4065,19 @@
         <v>143483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127959</v>
+        <v>127073</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161270</v>
+        <v>160327</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1855185529671969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1654461156821334</v>
+        <v>0.164301152935152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2085162221802913</v>
+        <v>0.2072968831802786</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>261268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>250625</v>
+        <v>250562</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>271520</v>
+        <v>270234</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8444294907555584</v>
+        <v>0.8444294907555582</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8100308264542034</v>
+        <v>0.8098260452599566</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8775630043509012</v>
+        <v>0.8734083210581072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>701</v>
@@ -4115,19 +4115,19 @@
         <v>368664</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>353767</v>
+        <v>355988</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380617</v>
+        <v>382055</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7945122269702973</v>
+        <v>0.7945122269702972</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7624076831257881</v>
+        <v>0.7671947933388097</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8202719870030114</v>
+        <v>0.8233707475754549</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1085</v>
@@ -4136,19 +4136,19 @@
         <v>629932</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>612145</v>
+        <v>613088</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>645456</v>
+        <v>646342</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8144814470328032</v>
+        <v>0.814481447032803</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7914837778197085</v>
+        <v>0.7927031168197215</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8345538843178667</v>
+        <v>0.8356988470648481</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>534034</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1512375779975038</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1080</v>
@@ -4261,19 +4261,19 @@
         <v>699733</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1874988219737451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1642</v>
@@ -4282,19 +4282,19 @@
         <v>1233766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1698695543420787</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>2997057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2955392</v>
+        <v>2946552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3045818</v>
+        <v>3039809</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8487624220024961</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8369628347712421</v>
+        <v>0.8344592491653199</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.86257128186368</v>
+        <v>0.8608695280897574</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4279</v>
@@ -4332,19 +4332,19 @@
         <v>3032198</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2988512</v>
+        <v>2992044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3067900</v>
+        <v>3075805</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8125011780262549</v>
+        <v>0.812501178026255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8007950552647733</v>
+        <v>0.8017414573353085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8220676653685302</v>
+        <v>0.8241858691136615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7091</v>
@@ -4353,19 +4353,19 @@
         <v>6029256</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5966965</v>
+        <v>5965917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6087463</v>
+        <v>6094249</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8301304456579213</v>
+        <v>0.8301304456579214</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8215540301849211</v>
+        <v>0.8214096974603321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8381446597865205</v>
+        <v>0.8390789950756395</v>
       </c>
     </row>
     <row r="27">
